--- a/IT系统后阶段开发时间计划表-第八版.xlsx
+++ b/IT系统后阶段开发时间计划表-第八版.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
   <si>
     <t>里程碑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,6 +447,10 @@
   </si>
   <si>
     <t>新模块：故障报修登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新模块：开发项目管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -721,6 +725,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,92 +755,101 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,10 +1134,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O85"/>
+  <dimension ref="B1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1154,55 +1170,55 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="32" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
     </row>
     <row r="3" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="36" t="s">
+      <c r="L3" s="56"/>
+      <c r="M3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1224,23 +1240,23 @@
       <c r="L4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="38"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="57"/>
     </row>
     <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="51" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="30">
@@ -1255,46 +1271,46 @@
       <c r="K5" s="12"/>
       <c r="L5" s="5"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="58" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="48"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="41"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="50"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
       <c r="K6" s="12"/>
       <c r="L6" s="5"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="29"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="2:15" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="48"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="41"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
       <c r="J7" s="31"/>
       <c r="K7" s="12"/>
       <c r="L7" s="5"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="29"/>
+      <c r="N7" s="58"/>
     </row>
     <row r="8" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="48"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="41" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="45" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1303,13 +1319,13 @@
       <c r="G8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="24">
         <v>42684</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="24">
         <v>42690</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="27">
         <v>6</v>
       </c>
       <c r="K8" s="12"/>
@@ -1318,63 +1334,63 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="48"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="41"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="4" t="s">
         <v>73</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="27"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="4"/>
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="48"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="41"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="27"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="12"/>
       <c r="L10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="48"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="41"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="28"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="12"/>
       <c r="L11" s="5"/>
       <c r="M11" s="4"/>
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="2:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="48"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="41" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1383,13 +1399,13 @@
       <c r="G12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="24">
         <v>42691</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="24">
         <v>42693</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="27">
         <v>3</v>
       </c>
       <c r="K12" s="12"/>
@@ -1398,54 +1414,54 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="2:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="48"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="41"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="27"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="12"/>
       <c r="L13" s="5"/>
       <c r="M13" s="4"/>
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="48"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="41"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="27"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="12"/>
       <c r="L14" s="5"/>
       <c r="M14" s="4"/>
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="48"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="41"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="4" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="27"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="12">
         <v>42707</v>
       </c>
@@ -1456,389 +1472,391 @@
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="48"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="4" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="59" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="28"/>
-      <c r="K16" s="12"/>
+      <c r="K16" s="60"/>
       <c r="L16" s="5"/>
       <c r="M16" s="4"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="48"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="41" t="s">
-        <v>43</v>
-      </c>
+    <row r="17" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="33"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="4" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="23">
-        <v>42695</v>
-      </c>
-      <c r="I17" s="23">
-        <v>42700</v>
-      </c>
-      <c r="J17" s="26">
-        <v>6</v>
-      </c>
-      <c r="K17" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="12">
+        <v>42716</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="4"/>
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="48"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="41"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="45" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="27"/>
+      <c r="H18" s="30">
+        <v>42695</v>
+      </c>
+      <c r="I18" s="30">
+        <v>42700</v>
+      </c>
+      <c r="J18" s="31">
+        <v>6</v>
+      </c>
       <c r="K18" s="12"/>
       <c r="L18" s="5"/>
       <c r="M18" s="4"/>
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="48"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="41"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="4" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="27"/>
+        <v>32</v>
+      </c>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
       <c r="K19" s="12"/>
       <c r="L19" s="5"/>
       <c r="M19" s="4"/>
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="48"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="41"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="27"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
       <c r="K20" s="12"/>
       <c r="L20" s="5"/>
       <c r="M20" s="4"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="48"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="41"/>
+    <row r="21" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="33"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="27"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
       <c r="K21" s="12"/>
       <c r="L21" s="5"/>
       <c r="M21" s="4"/>
       <c r="N21" s="9"/>
     </row>
     <row r="22" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="48"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="41"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="27"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
       <c r="K22" s="12"/>
       <c r="L22" s="5"/>
       <c r="M22" s="4"/>
       <c r="N22" s="9"/>
     </row>
     <row r="23" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="48"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="41"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="27"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
       <c r="K23" s="12"/>
       <c r="L23" s="5"/>
       <c r="M23" s="4"/>
       <c r="N23" s="9"/>
     </row>
     <row r="24" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="48"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="41"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="27"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
       <c r="K24" s="12"/>
       <c r="L24" s="5"/>
       <c r="M24" s="4"/>
       <c r="N24" s="9"/>
     </row>
     <row r="25" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="48"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="41"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="27"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
       <c r="K25" s="12"/>
       <c r="L25" s="5"/>
       <c r="M25" s="4"/>
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="48"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="41"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="27"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="31"/>
       <c r="K26" s="12"/>
       <c r="L26" s="5"/>
       <c r="M26" s="4"/>
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="48"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="41"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="27"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="31"/>
       <c r="K27" s="12"/>
       <c r="L27" s="5"/>
       <c r="M27" s="4"/>
       <c r="N27" s="9"/>
     </row>
     <row r="28" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="48"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="41"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="28"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="31"/>
       <c r="K28" s="12"/>
       <c r="L28" s="5"/>
       <c r="M28" s="4"/>
       <c r="N28" s="9"/>
     </row>
     <row r="29" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="48"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="57">
-        <v>42702</v>
-      </c>
-      <c r="I29" s="57">
-        <v>42711</v>
-      </c>
-      <c r="J29" s="31">
-        <v>9</v>
-      </c>
-      <c r="K29" s="12">
-        <v>42703</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="12"/>
       <c r="L29" s="5"/>
       <c r="M29" s="4"/>
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="48"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="F30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="12"/>
+      <c r="H30" s="41">
+        <v>42702</v>
+      </c>
+      <c r="I30" s="41">
+        <v>42711</v>
+      </c>
+      <c r="J30" s="31">
+        <v>9</v>
+      </c>
+      <c r="K30" s="12">
+        <v>42703</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="4"/>
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="48"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="4" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
+        <v>31</v>
+      </c>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
       <c r="J31" s="31"/>
-      <c r="K31" s="12">
-        <v>42703</v>
-      </c>
-      <c r="L31" s="12">
-        <v>42703</v>
-      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="4"/>
       <c r="N31" s="9"/>
     </row>
     <row r="32" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="48"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
       <c r="J32" s="31"/>
       <c r="K32" s="12">
-        <v>42704</v>
+        <v>42703</v>
       </c>
       <c r="L32" s="12">
-        <v>42706</v>
+        <v>42703</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="9"/>
     </row>
     <row r="33" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="48"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
       <c r="J33" s="31"/>
       <c r="K33" s="12">
+        <v>42704</v>
+      </c>
+      <c r="L33" s="12">
         <v>42706</v>
-      </c>
-      <c r="L33" s="12">
-        <v>42707</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="9"/>
     </row>
     <row r="34" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="48"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
       <c r="J34" s="31"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="5"/>
+      <c r="K34" s="12">
+        <v>42706</v>
+      </c>
+      <c r="L34" s="12">
+        <v>42707</v>
+      </c>
       <c r="M34" s="4"/>
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="48"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
       <c r="J35" s="31"/>
       <c r="K35" s="12"/>
       <c r="L35" s="5"/>
@@ -1846,76 +1864,76 @@
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="48"/>
-      <c r="D36" s="21"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
       <c r="J36" s="31"/>
       <c r="K36" s="12"/>
       <c r="L36" s="5"/>
       <c r="M36" s="4"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="48"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="41" t="s">
-        <v>44</v>
-      </c>
+    <row r="37" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="33"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="4" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="30">
-        <v>42712</v>
-      </c>
-      <c r="I37" s="30">
-        <v>42718</v>
-      </c>
-      <c r="J37" s="31">
-        <v>6</v>
-      </c>
-      <c r="K37" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="12"/>
       <c r="L37" s="5"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="17"/>
-    </row>
-    <row r="38" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="48"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="41"/>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="33"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="45" t="s">
+        <v>44</v>
+      </c>
       <c r="F38" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
+      <c r="H38" s="30">
+        <v>42712</v>
+      </c>
+      <c r="I38" s="30">
+        <v>42718</v>
+      </c>
+      <c r="J38" s="31">
+        <v>6</v>
+      </c>
       <c r="K38" s="7"/>
       <c r="L38" s="5"/>
       <c r="M38" s="4"/>
       <c r="N38" s="17"/>
     </row>
     <row r="39" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="48"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="41"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
@@ -1926,11 +1944,11 @@
       <c r="N39" s="17"/>
     </row>
     <row r="40" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="48"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="41"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="4" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>33</v>
@@ -1944,11 +1962,11 @@
       <c r="N40" s="17"/>
     </row>
     <row r="41" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="48"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="41"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>33</v>
@@ -1962,11 +1980,11 @@
       <c r="N41" s="17"/>
     </row>
     <row r="42" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="48"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="41"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="45"/>
       <c r="F42" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>33</v>
@@ -1980,11 +1998,11 @@
       <c r="N42" s="17"/>
     </row>
     <row r="43" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="48"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="41"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>33</v>
@@ -1998,11 +2016,11 @@
       <c r="N43" s="17"/>
     </row>
     <row r="44" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="48"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="41"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="45"/>
       <c r="F44" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>33</v>
@@ -2016,11 +2034,11 @@
       <c r="N44" s="17"/>
     </row>
     <row r="45" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="48"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="41"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>33</v>
@@ -2034,11 +2052,11 @@
       <c r="N45" s="17"/>
     </row>
     <row r="46" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="48"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="41"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>33</v>
@@ -2052,60 +2070,60 @@
       <c r="N46" s="17"/>
     </row>
     <row r="47" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="48"/>
-      <c r="D47" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="4" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="30">
-        <v>42719</v>
-      </c>
-      <c r="I47" s="30">
-        <v>42721</v>
-      </c>
-      <c r="J47" s="31">
-        <v>3</v>
-      </c>
-      <c r="K47" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="5"/>
       <c r="M47" s="4"/>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="48"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+    <row r="48" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="33"/>
+      <c r="D48" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="F48" s="4" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="31"/>
+      <c r="H48" s="30">
+        <v>42719</v>
+      </c>
+      <c r="I48" s="30">
+        <v>42721</v>
+      </c>
+      <c r="J48" s="31">
+        <v>3</v>
+      </c>
       <c r="K48" s="12"/>
       <c r="L48" s="5"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="13"/>
+      <c r="N48" s="17"/>
     </row>
     <row r="49" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="48"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
       <c r="F49" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
@@ -2116,14 +2134,14 @@
       <c r="N49" s="13"/>
     </row>
     <row r="50" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="48"/>
-      <c r="D50" s="21"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
@@ -2134,56 +2152,54 @@
       <c r="N50" s="13"/>
     </row>
     <row r="51" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="48"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="C51" s="33"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="23"/>
       <c r="F51" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H51" s="23">
-        <v>42723</v>
-      </c>
-      <c r="I51" s="23">
-        <v>42742</v>
-      </c>
-      <c r="J51" s="26">
-        <v>18</v>
-      </c>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="31"/>
       <c r="K51" s="12"/>
       <c r="L51" s="5"/>
       <c r="M51" s="4"/>
       <c r="N51" s="13"/>
     </row>
     <row r="52" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="48"/>
-      <c r="D52" s="21"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="27"/>
+      <c r="H52" s="24">
+        <v>42723</v>
+      </c>
+      <c r="I52" s="24">
+        <v>42742</v>
+      </c>
+      <c r="J52" s="27">
+        <v>18</v>
+      </c>
       <c r="K52" s="12"/>
       <c r="L52" s="5"/>
       <c r="M52" s="4"/>
       <c r="N52" s="13"/>
     </row>
     <row r="53" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="48"/>
-      <c r="D53" s="21"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>55</v>
@@ -2191,19 +2207,19 @@
       <c r="G53" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="27"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="28"/>
       <c r="K53" s="12"/>
       <c r="L53" s="5"/>
       <c r="M53" s="4"/>
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="48"/>
-      <c r="D54" s="21"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>55</v>
@@ -2211,19 +2227,19 @@
       <c r="G54" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="27"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="28"/>
       <c r="K54" s="12"/>
       <c r="L54" s="5"/>
       <c r="M54" s="4"/>
       <c r="N54" s="13"/>
     </row>
     <row r="55" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="48"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="22"/>
       <c r="E55" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>55</v>
@@ -2240,127 +2256,129 @@
       <c r="N55" s="13"/>
     </row>
     <row r="56" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="48"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="41" t="s">
-        <v>56</v>
+      <c r="C56" s="33"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H56" s="23">
-        <v>42744</v>
-      </c>
-      <c r="I56" s="23">
-        <v>42745</v>
-      </c>
-      <c r="J56" s="26">
-        <v>2</v>
-      </c>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="29"/>
       <c r="K56" s="12"/>
       <c r="L56" s="5"/>
       <c r="M56" s="4"/>
       <c r="N56" s="13"/>
     </row>
     <row r="57" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="48"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="41"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="45" t="s">
+        <v>56</v>
+      </c>
       <c r="F57" s="4" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="27"/>
+        <v>33</v>
+      </c>
+      <c r="H57" s="24">
+        <v>42744</v>
+      </c>
+      <c r="I57" s="24">
+        <v>42745</v>
+      </c>
+      <c r="J57" s="27">
+        <v>2</v>
+      </c>
       <c r="K57" s="12"/>
       <c r="L57" s="5"/>
       <c r="M57" s="4"/>
-      <c r="N57" s="19"/>
+      <c r="N57" s="13"/>
     </row>
     <row r="58" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="48"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="41"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="45"/>
       <c r="F58" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="27"/>
+        <v>78</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="28"/>
       <c r="K58" s="12"/>
       <c r="L58" s="5"/>
       <c r="M58" s="4"/>
-      <c r="N58" s="13"/>
+      <c r="N58" s="19"/>
     </row>
     <row r="59" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="48"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="41"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="45"/>
       <c r="F59" s="4" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="27"/>
+        <v>31</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="28"/>
       <c r="K59" s="12"/>
       <c r="L59" s="5"/>
       <c r="M59" s="4"/>
       <c r="N59" s="13"/>
     </row>
     <row r="60" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="48"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="41"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="45"/>
       <c r="F60" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="27"/>
+        <v>33</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="28"/>
       <c r="K60" s="12"/>
       <c r="L60" s="5"/>
       <c r="M60" s="4"/>
       <c r="N60" s="13"/>
     </row>
     <row r="61" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="48"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="41"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="45"/>
       <c r="F61" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="27"/>
+        <v>31</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="28"/>
       <c r="K61" s="12"/>
       <c r="L61" s="5"/>
       <c r="M61" s="4"/>
       <c r="N61" s="13"/>
     </row>
     <row r="62" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="48"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="41"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="45"/>
       <c r="F62" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>33</v>
@@ -2373,100 +2391,98 @@
       <c r="M62" s="4"/>
       <c r="N62" s="13"/>
     </row>
-    <row r="63" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="48"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="20" t="s">
+    <row r="63" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="33"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="13"/>
+    </row>
+    <row r="64" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="33"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G63" s="42" t="s">
+      <c r="G64" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H64" s="24">
         <v>42746</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I64" s="24">
         <v>42746</v>
       </c>
-      <c r="J63" s="26">
+      <c r="J64" s="27">
         <v>1</v>
       </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="7"/>
-    </row>
-    <row r="64" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="48"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G64" s="43"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="28"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="5"/>
       <c r="N64" s="7"/>
     </row>
     <row r="65" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="48"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="20" t="s">
+      <c r="C65" s="33"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G65" s="47"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="7"/>
+    </row>
+    <row r="66" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="33"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F66" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H65" s="23">
-        <v>42747</v>
-      </c>
-      <c r="I65" s="23">
-        <v>42747</v>
-      </c>
-      <c r="J65" s="26">
-        <v>1</v>
-      </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="16"/>
-    </row>
-    <row r="66" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="48"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="14" t="s">
-        <v>12</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="27"/>
+      <c r="H66" s="24">
+        <v>42747</v>
+      </c>
+      <c r="I66" s="24">
+        <v>42747</v>
+      </c>
+      <c r="J66" s="27">
+        <v>1</v>
+      </c>
       <c r="K66" s="10"/>
       <c r="L66" s="8"/>
       <c r="M66" s="4"/>
       <c r="N66" s="16"/>
     </row>
     <row r="67" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="49"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>19</v>
+      <c r="C67" s="33"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>8</v>
@@ -2474,37 +2490,39 @@
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="28"/>
-      <c r="K67" s="8"/>
+      <c r="K67" s="10"/>
       <c r="L67" s="8"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="7"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="16"/>
     </row>
     <row r="68" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="F68" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="20"/>
+        <v>8</v>
+      </c>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="29"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="5"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="48"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
+      <c r="C69" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
       <c r="F69" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>33</v>
@@ -2518,47 +2536,47 @@
       <c r="N69" s="7"/>
     </row>
     <row r="70" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="48"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
       <c r="F70" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="21"/>
+      <c r="J70" s="22"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="5"/>
       <c r="N70" s="7"/>
     </row>
     <row r="71" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="48"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
       <c r="F71" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
-      <c r="J71" s="21"/>
+      <c r="J71" s="22"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="5"/>
       <c r="N71" s="7"/>
     </row>
     <row r="72" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="49"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
       <c r="F72" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>33</v>
@@ -2572,24 +2590,28 @@
       <c r="N72" s="7"/>
     </row>
     <row r="73" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" s="51"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
-      <c r="J73" s="20"/>
+      <c r="J73" s="23"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="5"/>
       <c r="N73" s="7"/>
     </row>
     <row r="74" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="48"/>
-      <c r="D74" s="52"/>
+      <c r="C74" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="35"/>
       <c r="E74" s="21"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -2602,22 +2624,22 @@
       <c r="N74" s="7"/>
     </row>
     <row r="75" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="48"/>
-      <c r="D75" s="52"/>
-      <c r="E75" s="21"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="22"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
-      <c r="J75" s="21"/>
+      <c r="J75" s="22"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="5"/>
       <c r="N75" s="7"/>
     </row>
     <row r="76" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="49"/>
-      <c r="D76" s="53"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="36"/>
       <c r="E76" s="22"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -2629,112 +2651,126 @@
       <c r="M76" s="5"/>
       <c r="N76" s="7"/>
     </row>
-    <row r="77" spans="3:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+    <row r="77" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="34"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="7"/>
+    </row>
+    <row r="78" spans="3:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="40"/>
-      <c r="N77" s="18" t="s">
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F79" s="1"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="83" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F83" s="1"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-    </row>
-    <row r="85" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
+    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F80" s="1"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="84" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F84" s="1"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+    </row>
+    <row r="86" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="J68:J72"/>
-    <mergeCell ref="J73:J76"/>
-    <mergeCell ref="H56:H62"/>
-    <mergeCell ref="I56:I62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="I51:I55"/>
-    <mergeCell ref="J51:J55"/>
-    <mergeCell ref="J56:J62"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="H51:H55"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="D47:D55"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="H29:H36"/>
-    <mergeCell ref="I29:I36"/>
-    <mergeCell ref="H37:H46"/>
-    <mergeCell ref="I37:I46"/>
-    <mergeCell ref="C77:M77"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="E56:E62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="D56:D67"/>
-    <mergeCell ref="C5:C67"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="E17:E28"/>
-    <mergeCell ref="E37:E46"/>
+    <mergeCell ref="J30:J37"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="H18:H29"/>
+    <mergeCell ref="I18:I29"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="J18:J29"/>
+    <mergeCell ref="J38:J47"/>
+    <mergeCell ref="E30:E37"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="H17:H28"/>
-    <mergeCell ref="I17:I28"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="J17:J28"/>
-    <mergeCell ref="J37:J46"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="D5:D46"/>
-    <mergeCell ref="J29:J36"/>
+    <mergeCell ref="C78:M78"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E57:E63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D57:D68"/>
+    <mergeCell ref="C5:C68"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E18:E29"/>
+    <mergeCell ref="E38:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="H30:H37"/>
+    <mergeCell ref="I30:I37"/>
+    <mergeCell ref="H38:H47"/>
+    <mergeCell ref="I38:I47"/>
+    <mergeCell ref="D5:D47"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="H52:H56"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="I52:I56"/>
+    <mergeCell ref="J52:J56"/>
+    <mergeCell ref="J57:J63"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="J69:J73"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="H57:H63"/>
+    <mergeCell ref="I57:I63"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="J66:J68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
